--- a/ELSA/scrum/Scrum_ELSA (7).xlsx
+++ b/ELSA/scrum/Scrum_ELSA (7).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sindhu parajuli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460A6101-B71F-47F2-A139-740E5BBABD9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30200A49-5C3D-43DC-9593-213534A50F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sprint 02 Backlog" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint 03 Backlog" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 04 Backlog" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="195">
   <si>
     <t>Product Name:</t>
   </si>
@@ -1183,10 +1184,10 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,25 +2362,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3085,8 +3086,8 @@
   </sheetPr>
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3368,11 +3369,11 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -3388,11 +3389,11 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -4025,7 +4026,9 @@
         <v>5</v>
       </c>
       <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
+      <c r="G41" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="H41" s="20" t="s">
         <v>76</v>
       </c>
@@ -4932,7 +4935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -8686,7 +8689,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8793,7 +8796,7 @@
       </c>
       <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -8808,7 +8811,7 @@
       </c>
       <c r="B8" s="29">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -8826,7 +8829,7 @@
       </c>
       <c r="B9" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -8844,7 +8847,7 @@
       </c>
       <c r="B10" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -8862,7 +8865,7 @@
       </c>
       <c r="B11" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -8880,7 +8883,7 @@
       </c>
       <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -8898,7 +8901,7 @@
       </c>
       <c r="B13" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -8920,7 +8923,7 @@
       </c>
       <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -9061,11 +9064,15 @@
         <v>7</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>149</v>
+      </c>
       <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9884,4 +9891,16 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCE59AD-0CF0-425B-AF36-4896BFCD578C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>